--- a/xlsx/美军亵渎古兰经事件_intext.xlsx
+++ b/xlsx/美军亵渎古兰经事件_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国军队</t>
   </si>
   <si>
-    <t>政策_政策_美國_美军亵渎古兰经事件</t>
+    <t>政策_政策_美国_美军亵渎古兰经事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%B5%E6%B8%8E%E5%8F%A4%E5%85%B0%E7%BB%8F</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>新聞週刊</t>
+    <t>新闻周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
 </sst>
 </file>
